--- a/Taches_modified.xlsx
+++ b/Taches_modified.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kennedy\Desktop\coucou\tpe-SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>_</t>
   </si>
   <si>
-    <t>E,H,I</t>
+    <t>E,F,I</t>
   </si>
 </sst>
 </file>
@@ -472,18 +472,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -514,17 +514,17 @@
         <v>44656</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="5">
         <f>SUM(C2,D2)</f>
-        <v>44659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -533,20 +533,20 @@
       </c>
       <c r="C3" s="5">
         <f>SUM(C2,D2)</f>
-        <v>44659</v>
+        <v>44660</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5">
         <f>SUM(C3:D3)</f>
-        <v>44661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -555,20 +555,20 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3,D3)</f>
-        <v>44661</v>
+        <v>44663</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F12" si="0">SUM(C4:D4)</f>
-        <v>44662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -577,7 +577,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C12" si="1">SUM(C4,D4)</f>
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -587,10 +587,10 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>44665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -599,7 +599,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -609,10 +609,10 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -621,7 +621,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>44668</v>
+        <v>44671</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -631,10 +631,10 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -643,7 +643,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="1"/>
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -653,10 +653,10 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>44673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -665,20 +665,20 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="1"/>
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>44674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -687,7 +687,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="1"/>
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -697,10 +697,10 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>44677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -709,7 +709,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="1"/>
-        <v>44677</v>
+        <v>44681</v>
       </c>
       <c r="D11" s="4">
         <v>12</v>
@@ -719,10 +719,10 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>44689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -731,17 +731,17 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="1"/>
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="D12" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>44693</v>
+        <v>44698</v>
       </c>
     </row>
   </sheetData>

--- a/Taches_modified.xlsx
+++ b/Taches_modified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>_</t>
   </si>
   <si>
-    <t>E,F,I</t>
+    <t>C,F,H</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
@@ -712,14 +712,14 @@
         <v>44681</v>
       </c>
       <c r="D11" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>44693</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -731,17 +731,17 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="1"/>
-        <v>44693</v>
+        <v>44691</v>
       </c>
       <c r="D12" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>44698</v>
+        <v>44695</v>
       </c>
     </row>
   </sheetData>

--- a/Taches_modified.xlsx
+++ b/Taches_modified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
